--- a/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Angina (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Angina (UPTO).xlsx
@@ -581,76 +581,76 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.05479270315091205</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="G2" t="n">
-        <v>1.556661691542287</v>
+        <v>1.700961857379766</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>4.772133333333333</v>
+        <v>5.273333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>5.75033502521836</v>
+        <v>5.578573797678269</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1379143528126498</v>
+        <v>0.1800000000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>16.24454422448896</v>
+        <v>16.69333333333334</v>
       </c>
       <c r="M2" t="n">
-        <v>5.569144303494553</v>
+        <v>5.294295190713096</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1276921840912841</v>
+        <v>0.1533333333333334</v>
       </c>
       <c r="O2" t="n">
-        <v>15.60612857142857</v>
+        <v>15.02</v>
       </c>
       <c r="P2" t="n">
-        <v>3.670703914714269</v>
+        <v>3.648092868988387</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0218795974791599</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="R2" t="n">
-        <v>9.954360325295619</v>
+        <v>10.00666666666667</v>
       </c>
       <c r="S2" t="n">
-        <v>2.244470604918692</v>
+        <v>2.060829187396345</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>6.117423180414359</v>
+        <v>5.819999999999999</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9278605242187323</v>
+        <v>0.9041791044776114</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>3.175106762300877</v>
+        <v>3.126666666666667</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1524676616915423</v>
+        <v>0.1539303482587064</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7858153199741434</v>
+        <v>0.7600000000000002</v>
       </c>
     </row>
     <row r="3">
@@ -682,58 +682,58 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.06540630182421213</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.2533333333333333</v>
       </c>
       <c r="M3" t="n">
-        <v>0.988097567716971</v>
+        <v>1.103946932006633</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.180615384615383</v>
+        <v>3.533333333333334</v>
       </c>
       <c r="P3" t="n">
-        <v>1.224198673300166</v>
+        <v>1.391542288557213</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.007111111111111111</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.239599999999997</v>
+        <v>4.733333333333334</v>
       </c>
       <c r="S3" t="n">
-        <v>1.168838916528467</v>
+        <v>1.334825870646765</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01733333333333334</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>3.926000000000001</v>
+        <v>4.253333333333332</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8296745852544347</v>
+        <v>0.941260364842454</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>2.757222222222229</v>
+        <v>3.026666666666665</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2292211582778739</v>
+        <v>0.2385074626865666</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.054363736263737</v>
+        <v>1.093333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -765,58 +765,58 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.04092868988391374</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="M4" t="n">
-        <v>1.387034825870645</v>
+        <v>1.433797678275289</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.493333333333342</v>
+        <v>4.526666666666666</v>
       </c>
       <c r="P4" t="n">
-        <v>1.907479270315089</v>
+        <v>1.935323383084574</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.004488888888888889</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.862999999999997</v>
+        <v>6.153333333333332</v>
       </c>
       <c r="S4" t="n">
-        <v>1.739643101950562</v>
+        <v>1.848358208955222</v>
       </c>
       <c r="T4" t="n">
-        <v>0.002160846560846561</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>5.292000000000004</v>
+        <v>5.499999999999999</v>
       </c>
       <c r="V4" t="n">
-        <v>1.265703427307904</v>
+        <v>1.290547263681591</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>3.630385978835977</v>
+        <v>3.813333333333333</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.3009035891968717</v>
+        <v>0.3058043117744597</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.132396299831594</v>
+        <v>1.126666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -839,67 +839,67 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.0299170812603648</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J5" t="n">
-        <v>1.053990215588722</v>
+        <v>1.143814262023217</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3.95229766246825</v>
+        <v>4.159999999999998</v>
       </c>
       <c r="M5" t="n">
-        <v>1.310195422856659</v>
+        <v>1.454991708126034</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>4.228206996110335</v>
+        <v>4.606666666666666</v>
       </c>
       <c r="P5" t="n">
-        <v>1.354016899628839</v>
+        <v>1.500729684908788</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0122273164081521</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>4.364928571428569</v>
+        <v>4.686666666666667</v>
       </c>
       <c r="S5" t="n">
-        <v>1.243715644002213</v>
+        <v>1.336716417910447</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>3.968212698412699</v>
+        <v>4.320000000000001</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7667908342900869</v>
+        <v>0.8447761194029845</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>2.414828571428568</v>
+        <v>2.680000000000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2046635911352328</v>
+        <v>0.210149253731343</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.8715118326118326</v>
+        <v>0.9533333333333334</v>
       </c>
     </row>
     <row r="6">
@@ -922,67 +922,67 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.801257048092868</v>
+        <v>0.8440796019900488</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.846909523809523</v>
+        <v>3.04</v>
       </c>
       <c r="J6" t="n">
-        <v>2.584928475651848</v>
+        <v>2.428955223880586</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>7.98529523809524</v>
+        <v>7.393333333333335</v>
       </c>
       <c r="M6" t="n">
-        <v>2.843708325744634</v>
+        <v>2.777744610281914</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001342657342657343</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>8.02583139942846</v>
+        <v>8.220000000000002</v>
       </c>
       <c r="P6" t="n">
-        <v>2.676814925373125</v>
+        <v>2.53409618573797</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0004089765006527971</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.217933333333333</v>
+        <v>7.859999999999999</v>
       </c>
       <c r="S6" t="n">
-        <v>2.211874987563869</v>
+        <v>2.061658374792698</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>6.555699531840709</v>
+        <v>6.52</v>
       </c>
       <c r="V6" t="n">
-        <v>1.197048089164782</v>
+        <v>1.146169154228855</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>3.633329820723939</v>
+        <v>3.679999999999998</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2488411906501452</v>
+        <v>0.2602653399668317</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.9921930919043542</v>
+        <v>1.013333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -1014,58 +1014,58 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.609691542288555</v>
+        <v>1.485406301824211</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>5.028733333333335</v>
+        <v>4.686666666666667</v>
       </c>
       <c r="M7" t="n">
-        <v>5.947246776219894</v>
+        <v>5.929618573797664</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1491282950466305</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="O7" t="n">
-        <v>17.01786031746031</v>
+        <v>17.48666666666666</v>
       </c>
       <c r="P7" t="n">
-        <v>5.67982163728866</v>
+        <v>5.613731343283573</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03516918142273304</v>
+        <v>0.04</v>
       </c>
       <c r="R7" t="n">
-        <v>16.38077544122545</v>
+        <v>16.25333333333334</v>
       </c>
       <c r="S7" t="n">
-        <v>3.399370470019757</v>
+        <v>3.581326699834152</v>
       </c>
       <c r="T7" t="n">
-        <v>0.002726047590753474</v>
+        <v>0.04</v>
       </c>
       <c r="U7" t="n">
-        <v>9.259051562922354</v>
+        <v>10.45333333333334</v>
       </c>
       <c r="V7" t="n">
-        <v>1.65630445883285</v>
+        <v>1.583980099502488</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>4.707963011458712</v>
+        <v>4.533333333333332</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2677445628997858</v>
+        <v>0.2600331674958532</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.071891382788751</v>
+        <v>1.006666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -1100,55 +1100,55 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01866666666666667</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>15.32386606649292</v>
+        <v>15.51930348258705</v>
       </c>
       <c r="N8" t="n">
-        <v>0.18</v>
+        <v>0.4733333333333333</v>
       </c>
       <c r="O8" t="n">
-        <v>48.99701375661377</v>
+        <v>48.28666666666667</v>
       </c>
       <c r="P8" t="n">
-        <v>7.157505472636803</v>
+        <v>7.202620232172461</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1517703703703702</v>
+        <v>0.2866666666666668</v>
       </c>
       <c r="R8" t="n">
-        <v>19.58539523809523</v>
+        <v>19.75999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>2.222668325041454</v>
+        <v>2.327429519071301</v>
       </c>
       <c r="T8" t="n">
-        <v>0.007422222222222223</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>7.889333333333333</v>
+        <v>7.986666666666666</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6344875621890553</v>
+        <v>0.6580099502487556</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>3.325333333333337</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.08267429519071305</v>
+        <v>0.08583747927031499</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5870207792207792</v>
+        <v>0.5866666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -1171,67 +1171,67 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.05048092868988387</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.854779499328751</v>
+        <v>1.814560530679932</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>6.292066666666665</v>
+        <v>6.019999999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>2.695281535398439</v>
+        <v>2.670713101160851</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0007272727272727273</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>7.94499693977047</v>
+        <v>7.719999999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>2.736109452736305</v>
+        <v>2.663184079601979</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01272490150654856</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="R9" t="n">
-        <v>7.935466666666671</v>
+        <v>7.733333333333337</v>
       </c>
       <c r="S9" t="n">
-        <v>2.369675295169648</v>
+        <v>2.213001658374789</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>7.098110138818718</v>
+        <v>6.799999999999999</v>
       </c>
       <c r="V9" t="n">
-        <v>1.375115013413237</v>
+        <v>1.316384742951906</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>4.251365513457838</v>
+        <v>4.153333333333335</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.3045394161786538</v>
+        <v>0.2966500829187394</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.130226717762453</v>
+        <v>1.113333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -1263,58 +1263,58 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.462438590118182</v>
+        <v>7.095091210613591</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07066666666666663</v>
+        <v>0.12</v>
       </c>
       <c r="L10" t="n">
-        <v>25.6434761904762</v>
+        <v>24.39333333333333</v>
       </c>
       <c r="M10" t="n">
-        <v>11.69355667593876</v>
+        <v>11.40484245439468</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1638474985798516</v>
+        <v>0.1733333333333334</v>
       </c>
       <c r="O10" t="n">
-        <v>33.37295238095238</v>
+        <v>33.09333333333333</v>
       </c>
       <c r="P10" t="n">
-        <v>3.862767827529013</v>
+        <v>3.975820895522377</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.002204516162828653</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>12.70055238095238</v>
+        <v>12.82</v>
       </c>
       <c r="S10" t="n">
-        <v>1.277266729842849</v>
+        <v>1.301359867330015</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>5.291378571428569</v>
+        <v>5.186666666666666</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3753446932006619</v>
+        <v>0.3732669983416239</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>2.01509793169793</v>
+        <v>1.953333333333334</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.04773697552338547</v>
+        <v>0.04742951907131002</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.4244926052619551</v>
+        <v>0.4133333333333335</v>
       </c>
     </row>
     <row r="11">
@@ -1337,67 +1337,67 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.384053067993348</v>
+        <v>2.831509121061348</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.500000000000004</v>
+        <v>8.653333333333338</v>
       </c>
       <c r="J11" t="n">
-        <v>7.826431832429586</v>
+        <v>8.748358208955215</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2654922764816883</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="L11" t="n">
-        <v>22.84165240804947</v>
+        <v>24.49333333333334</v>
       </c>
       <c r="M11" t="n">
-        <v>6.036940203743193</v>
+        <v>6.005140961857373</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1729136872258307</v>
+        <v>0.1333333333333334</v>
       </c>
       <c r="O11" t="n">
-        <v>16.12125026455025</v>
+        <v>16.50666666666667</v>
       </c>
       <c r="P11" t="n">
-        <v>3.575983516317749</v>
+        <v>3.102189054726358</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01342596795129887</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="R11" t="n">
-        <v>9.419460980849216</v>
+        <v>9.006666666666669</v>
       </c>
       <c r="S11" t="n">
-        <v>1.459333278054174</v>
+        <v>1.385903814262022</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>4.694800000000003</v>
+        <v>4.646666666666665</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5412736318407958</v>
+        <v>0.497280265339966</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>2.286038228438227</v>
+        <v>2.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.07728689883913757</v>
+        <v>0.07190713101160856</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.3930280830280831</v>
+        <v>0.4933333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -1411,76 +1411,76 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.175217247097844</v>
+        <v>1.170547263681591</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3.558444444444441</v>
+        <v>3.54</v>
       </c>
       <c r="G12" t="n">
-        <v>3.845297070204526</v>
+        <v>3.934693200663343</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04194383768710997</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="I12" t="n">
-        <v>10.67113333333334</v>
+        <v>10.84</v>
       </c>
       <c r="J12" t="n">
-        <v>4.238878625391546</v>
+        <v>4.307860696517396</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01242010582010582</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>11.92260822510823</v>
+        <v>11.62</v>
       </c>
       <c r="M12" t="n">
-        <v>3.694406455217885</v>
+        <v>3.657910447761178</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01053167701863354</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>9.83903924963924</v>
+        <v>9.733333333333338</v>
       </c>
       <c r="P12" t="n">
-        <v>2.619996069754411</v>
+        <v>2.724809286898831</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0004335351211530004</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.184918924659792</v>
+        <v>7.419999999999998</v>
       </c>
       <c r="S12" t="n">
-        <v>1.730432913003177</v>
+        <v>1.72809286898839</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>5.250354378370166</v>
+        <v>5.339999999999999</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9066673690850898</v>
+        <v>0.8335655058043111</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>2.735453738797907</v>
+        <v>2.586666666666666</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1653520729684906</v>
+        <v>0.1563184079601987</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.7985169333900183</v>
+        <v>0.7800000000000004</v>
       </c>
     </row>
     <row r="13">
@@ -1503,67 +1503,67 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>11.90192340948162</v>
+        <v>11.6204311774461</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3077752681408683</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>37.80649157509157</v>
+        <v>36.85333333333334</v>
       </c>
       <c r="J13" t="n">
-        <v>7.437984149406407</v>
+        <v>7.851840796019891</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2711971374159611</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="L13" t="n">
-        <v>21.75468384687208</v>
+        <v>22.2</v>
       </c>
       <c r="M13" t="n">
-        <v>2.783338512659351</v>
+        <v>3.033366500829181</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02266524455936221</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="O13" t="n">
-        <v>9.079383227447936</v>
+        <v>9.53333333333333</v>
       </c>
       <c r="P13" t="n">
-        <v>1.070680011706175</v>
+        <v>1.193830845771144</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.00206586073377557</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4.681569298022239</v>
+        <v>5.046666666666666</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4151734885933818</v>
+        <v>0.4839469320066326</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.270187287222581</v>
+        <v>2.54</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1402407553198597</v>
+        <v>0.1542288557213929</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.038591820878354</v>
+        <v>1.113333333333333</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.02228427932080712</v>
+        <v>0.02291873963515751</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.2315050825711536</v>
+        <v>0.2466666666666668</v>
       </c>
     </row>
     <row r="14">
@@ -1586,67 +1586,67 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.898974571586506</v>
+        <v>3.449883913764503</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="I14" t="n">
-        <v>12.508</v>
+        <v>10.88666666666667</v>
       </c>
       <c r="J14" t="n">
-        <v>10.60776440665924</v>
+        <v>9.814825870646757</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2991321833446917</v>
+        <v>0.2533333333333335</v>
       </c>
       <c r="L14" t="n">
-        <v>30.49135994482</v>
+        <v>27.7</v>
       </c>
       <c r="M14" t="n">
-        <v>5.88747400300087</v>
+        <v>6.026998341625203</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1087398410341827</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="O14" t="n">
-        <v>15.47502962962963</v>
+        <v>16.46666666666667</v>
       </c>
       <c r="P14" t="n">
-        <v>2.560737692489924</v>
+        <v>2.735555555555548</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.005337427904957886</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>7.649670995670996</v>
+        <v>8.233333333333338</v>
       </c>
       <c r="S14" t="n">
-        <v>1.006542077969939</v>
+        <v>1.130812603648423</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>3.843036796536798</v>
+        <v>4.179999999999999</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3128512322945143</v>
+        <v>0.3804311774461014</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.414197363747365</v>
+        <v>1.706666666666666</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.04154522624970378</v>
+        <v>0.05084577114427851</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.3375682730564338</v>
+        <v>0.4066666666666668</v>
       </c>
     </row>
     <row r="15">
@@ -1660,76 +1660,76 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.01827529021558866</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.05999999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>1.056290967481016</v>
+        <v>1.137976782752901</v>
       </c>
       <c r="H15" t="n">
-        <v>0.006695578454144684</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.921038095238095</v>
+        <v>3.833333333333334</v>
       </c>
       <c r="J15" t="n">
-        <v>1.243653435629935</v>
+        <v>1.436716417910446</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="L15" t="n">
-        <v>4.42299292929293</v>
+        <v>4.726666666666667</v>
       </c>
       <c r="M15" t="n">
-        <v>1.25482596550308</v>
+        <v>1.483383084577113</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="O15" t="n">
-        <v>4.417225866242759</v>
+        <v>4.693333333333333</v>
       </c>
       <c r="P15" t="n">
-        <v>1.187363657900971</v>
+        <v>1.408888888888888</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.002500314459444466</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>4.162302564102564</v>
+        <v>4.486666666666667</v>
       </c>
       <c r="S15" t="n">
-        <v>1.038346831977677</v>
+        <v>1.14865671641791</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>3.487219769119768</v>
+        <v>3.500000000000001</v>
       </c>
       <c r="V15" t="n">
-        <v>0.6171209964733666</v>
+        <v>0.6808623548922055</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>2.134816161616161</v>
+        <v>2.320000000000001</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1604096185737976</v>
+        <v>0.1806301824212269</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.7776074361254588</v>
+        <v>0.7933333333333336</v>
       </c>
     </row>
     <row r="16">
@@ -1743,76 +1743,76 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.02636815920398007</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8044919845218342</v>
+        <v>1.027097844112768</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.792509523809524</v>
+        <v>3.62</v>
       </c>
       <c r="J16" t="n">
-        <v>2.522702770842561</v>
+        <v>2.672736318407949</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>7.714658730158733</v>
+        <v>7.900000000000003</v>
       </c>
       <c r="M16" t="n">
-        <v>2.678705415277544</v>
+        <v>2.97084577114427</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0007272727272727273</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="O16" t="n">
-        <v>7.86514175203881</v>
+        <v>8.56</v>
       </c>
       <c r="P16" t="n">
-        <v>2.64213399668324</v>
+        <v>2.633565505804302</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.003164364351947091</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.207444444444445</v>
+        <v>7.906666666666665</v>
       </c>
       <c r="S16" t="n">
-        <v>2.231435965723356</v>
+        <v>2.067462686567159</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>6.57679866603984</v>
+        <v>6.413333333333333</v>
       </c>
       <c r="V16" t="n">
-        <v>1.176797223004961</v>
+        <v>1.126733001658374</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>3.60396290245702</v>
+        <v>3.606666666666665</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2515095156916045</v>
+        <v>0.2505804311774453</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.9868381135493759</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1826,76 +1826,76 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.092695411829739</v>
+        <v>0.969353233830845</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>3.250111111111107</v>
+        <v>2.953333333333334</v>
       </c>
       <c r="G17" t="n">
-        <v>3.678541514648968</v>
+        <v>3.682819237147586</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04251526625853855</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="I17" t="n">
-        <v>10.77680000000001</v>
+        <v>10.82666666666666</v>
       </c>
       <c r="J17" t="n">
-        <v>4.150046992550464</v>
+        <v>4.278606965174117</v>
       </c>
       <c r="K17" t="n">
-        <v>0.08567878787878781</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="L17" t="n">
-        <v>12.22928441558442</v>
+        <v>12.46</v>
       </c>
       <c r="M17" t="n">
-        <v>3.590184421806308</v>
+        <v>3.635887230514089</v>
       </c>
       <c r="N17" t="n">
-        <v>0.058874900461857</v>
+        <v>0.02</v>
       </c>
       <c r="O17" t="n">
-        <v>10.3716761904762</v>
+        <v>10.28666666666667</v>
       </c>
       <c r="P17" t="n">
-        <v>2.603455972853296</v>
+        <v>2.648424543946924</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.030303030303031e-05</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>7.035180829421694</v>
+        <v>7.526666666666668</v>
       </c>
       <c r="S17" t="n">
-        <v>1.714044185966766</v>
+        <v>1.675754560530678</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>5.024181218197009</v>
+        <v>4.913333333333331</v>
       </c>
       <c r="V17" t="n">
-        <v>0.9218143040369999</v>
+        <v>0.8193034825870639</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>2.778981618761083</v>
+        <v>2.713333333333332</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1620280265339965</v>
+        <v>0.1594361525704806</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.7848745757476605</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="18">
@@ -1927,58 +1927,58 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.04315091210613594</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M18" t="n">
-        <v>1.387250414593696</v>
+        <v>1.430182421227196</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>4.493333333333342</v>
+        <v>4.553333333333332</v>
       </c>
       <c r="P18" t="n">
-        <v>1.927373134328353</v>
+        <v>1.901459369817574</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0002666666666666667</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.150666666666666</v>
+        <v>6.086666666666665</v>
       </c>
       <c r="S18" t="n">
-        <v>1.851354339414039</v>
+        <v>1.811011608623548</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>5.376000000000007</v>
+        <v>5.313333333333333</v>
       </c>
       <c r="V18" t="n">
-        <v>1.307868988391376</v>
+        <v>1.268424543946931</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>3.79791746031746</v>
+        <v>3.76</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.3147900497512425</v>
+        <v>0.30384742951907</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.139993569228863</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="19">
@@ -1992,76 +1992,76 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2.870142620232159</v>
+        <v>2.681426202321715</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>8.369933333333336</v>
+        <v>8.020000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>8.413311221669428</v>
+        <v>8.772338308457705</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1747600286733165</v>
+        <v>0.04</v>
       </c>
       <c r="I19" t="n">
-        <v>22.89714285714286</v>
+        <v>23.50666666666667</v>
       </c>
       <c r="J19" t="n">
-        <v>6.361234765888245</v>
+        <v>6.365273631840783</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07140884300884301</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="L19" t="n">
-        <v>17.61103028083027</v>
+        <v>17.17333333333333</v>
       </c>
       <c r="M19" t="n">
-        <v>3.454272912585839</v>
+        <v>3.424013266998335</v>
       </c>
       <c r="N19" t="n">
-        <v>0.004000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>10.07058343508344</v>
+        <v>10.22666666666666</v>
       </c>
       <c r="P19" t="n">
-        <v>1.691279751315571</v>
+        <v>1.711144278606962</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.004487304434471763</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.694952480852481</v>
+        <v>5.779999999999998</v>
       </c>
       <c r="S19" t="n">
-        <v>0.7064715680854976</v>
+        <v>0.7763184079601984</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2.686749206349209</v>
+        <v>2.906666666666665</v>
       </c>
       <c r="V19" t="n">
-        <v>0.2644905906973067</v>
+        <v>0.2933665008291869</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.434149206349205</v>
+        <v>1.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.04305614783226714</v>
+        <v>0.05094527363184066</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.2670340350567906</v>
+        <v>0.3533333333333335</v>
       </c>
     </row>
     <row r="20">
@@ -2075,76 +2075,76 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8060818921266678</v>
+        <v>0.8532338308457701</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2.559749735449737</v>
+        <v>2.7</v>
       </c>
       <c r="G20" t="n">
-        <v>2.581667726782142</v>
+        <v>2.701293532338298</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01267826243682867</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="I20" t="n">
-        <v>7.427753246753248</v>
+        <v>8.159999999999997</v>
       </c>
       <c r="J20" t="n">
-        <v>3.010583371796794</v>
+        <v>3.123946932006621</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>8.861579653679653</v>
+        <v>9.546666666666665</v>
       </c>
       <c r="M20" t="n">
-        <v>2.70802901182104</v>
+        <v>2.868092868988378</v>
       </c>
       <c r="N20" t="n">
-        <v>0.001714285714285715</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="O20" t="n">
-        <v>7.813658032055089</v>
+        <v>8.19333333333333</v>
       </c>
       <c r="P20" t="n">
-        <v>2.414215351500749</v>
+        <v>2.365008291873951</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0001498676190644456</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6.851296994835229</v>
+        <v>6.78</v>
       </c>
       <c r="S20" t="n">
-        <v>1.710028815728013</v>
+        <v>1.738109452736317</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>5.032368455959245</v>
+        <v>5.120000000000002</v>
       </c>
       <c r="V20" t="n">
-        <v>0.93171286314327</v>
+        <v>0.9155555555555547</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>2.849868934713104</v>
+        <v>2.88</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2146490340138522</v>
+        <v>0.2177114427860684</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.8312425965393493</v>
+        <v>0.806666666666667</v>
       </c>
     </row>
     <row r="21">
@@ -2158,76 +2158,76 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.06547263681592033</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="G21" t="n">
-        <v>1.354734127343081</v>
+        <v>1.408955223880596</v>
       </c>
       <c r="H21" t="n">
-        <v>0.006695578454144684</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>4.864948229548229</v>
+        <v>4.873333333333333</v>
       </c>
       <c r="J21" t="n">
-        <v>1.723793928672915</v>
+        <v>1.814029850746268</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001333333333333334</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="L21" t="n">
-        <v>6.144978876678878</v>
+        <v>6.333333333333337</v>
       </c>
       <c r="M21" t="n">
-        <v>1.87868440052777</v>
+        <v>1.907296849087892</v>
       </c>
       <c r="N21" t="n">
-        <v>0.001</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="O21" t="n">
-        <v>5.82367459675401</v>
+        <v>5.606666666666669</v>
       </c>
       <c r="P21" t="n">
-        <v>1.749883676853826</v>
+        <v>1.764842454394693</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.002690790649920657</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>5.597333333333332</v>
+        <v>5.526666666666665</v>
       </c>
       <c r="S21" t="n">
-        <v>1.466261829387398</v>
+        <v>1.4249087893864</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>4.272287337662333</v>
+        <v>4.186666666666668</v>
       </c>
       <c r="V21" t="n">
-        <v>0.8933626889320208</v>
+        <v>0.8354560530679926</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>2.897495361010118</v>
+        <v>2.773333333333332</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2196368975599245</v>
+        <v>0.2188391376451066</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.8401225965393493</v>
+        <v>0.9533333333333334</v>
       </c>
     </row>
     <row r="22">
@@ -2250,67 +2250,67 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.2157545605306793</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03381630591630592</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>14.28714423869801</v>
+        <v>13.83830845771143</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3904923049824999</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="L22" t="n">
-        <v>43.5353021906061</v>
+        <v>43.57333333333333</v>
       </c>
       <c r="M22" t="n">
-        <v>6.540360009476415</v>
+        <v>7.033366500829183</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1712001496267751</v>
+        <v>0.1533333333333334</v>
       </c>
       <c r="O22" t="n">
-        <v>19.79893650793655</v>
+        <v>20.54666666666666</v>
       </c>
       <c r="P22" t="n">
-        <v>2.118696706941481</v>
+        <v>2.342454394693198</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.007481711703756647</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>8.062917460317459</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>0.755548553528652</v>
+        <v>0.8565505804311763</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>3.72215</v>
+        <v>3.833333333333334</v>
       </c>
       <c r="V22" t="n">
-        <v>0.2262430427228922</v>
+        <v>0.2517744610281911</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.534366329966331</v>
+        <v>1.48</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0312444619010211</v>
+        <v>0.03459369817578764</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.3625191767297031</v>
+        <v>0.3733333333333335</v>
       </c>
     </row>
     <row r="23">
@@ -2324,76 +2324,76 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5668155887230503</v>
+        <v>0.5520398009950238</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2.061607936507937</v>
+        <v>1.926666666666666</v>
       </c>
       <c r="G23" t="n">
-        <v>1.303822681446063</v>
+        <v>1.469452736318406</v>
       </c>
       <c r="H23" t="n">
-        <v>0.009781292739858971</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="I23" t="n">
-        <v>4.247180952380953</v>
+        <v>4.813333333333333</v>
       </c>
       <c r="J23" t="n">
-        <v>1.408691010400842</v>
+        <v>1.664145936981755</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>4.542556854256855</v>
+        <v>5.326666666666667</v>
       </c>
       <c r="M23" t="n">
-        <v>1.362274106063463</v>
+        <v>1.556815920398008</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="O23" t="n">
-        <v>4.416055025858366</v>
+        <v>4.913333333333331</v>
       </c>
       <c r="P23" t="n">
-        <v>1.239330621617188</v>
+        <v>1.382155887230513</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0001142106392106392</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>3.939677777777778</v>
+        <v>4.359999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>1.0482798129823</v>
+        <v>1.129618573797678</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3.404406704406704</v>
+        <v>3.533333333333336</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6748481643856088</v>
+        <v>0.7016252072968487</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>2.161269519369521</v>
+        <v>2.186666666666666</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.1687308421815883</v>
+        <v>0.1724378109452734</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.7660378057558286</v>
+        <v>0.7733333333333337</v>
       </c>
     </row>
     <row r="24">
@@ -2407,76 +2407,76 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.02636815920398007</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8087142067440565</v>
+        <v>1.050480928689883</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.800509523809524</v>
+        <v>3.56</v>
       </c>
       <c r="J24" t="n">
-        <v>2.53225783151802</v>
+        <v>2.755953565505796</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="L24" t="n">
-        <v>7.747738095238097</v>
+        <v>7.946666666666668</v>
       </c>
       <c r="M24" t="n">
-        <v>2.702813970624904</v>
+        <v>3.071475953565497</v>
       </c>
       <c r="N24" t="n">
-        <v>0.006727272727272728</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="O24" t="n">
-        <v>8.018697128144186</v>
+        <v>8.686666666666667</v>
       </c>
       <c r="P24" t="n">
-        <v>2.657755887230504</v>
+        <v>2.719966832504136</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.004460351734590821</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.228777777777777</v>
+        <v>7.906666666666665</v>
       </c>
       <c r="S24" t="n">
-        <v>2.277343037111524</v>
+        <v>2.106666666666663</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>6.94007928737928</v>
+        <v>6.466666666666668</v>
       </c>
       <c r="V24" t="n">
-        <v>1.176075802634286</v>
+        <v>1.132603648424543</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>3.628788462082581</v>
+        <v>3.566666666666665</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.2516620861725332</v>
+        <v>0.2505472636815914</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.9868381135493759</v>
+        <v>0.9800000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -2508,58 +2508,58 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7608336360525405</v>
+        <v>0.74278606965174</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2.712380952380951</v>
+        <v>2.66</v>
       </c>
       <c r="M25" t="n">
-        <v>2.427347871752344</v>
+        <v>2.390480928689875</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0007272727272727273</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>7.526109090909086</v>
+        <v>7.246666666666667</v>
       </c>
       <c r="P25" t="n">
-        <v>2.713053233830834</v>
+        <v>2.756616915422874</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.004019102990943275</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="R25" t="n">
-        <v>7.979733333333335</v>
+        <v>8.086666666666662</v>
       </c>
       <c r="S25" t="n">
-        <v>2.462774835749658</v>
+        <v>2.437346600331667</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>7.142170523920522</v>
+        <v>7.153333333333334</v>
       </c>
       <c r="V25" t="n">
-        <v>1.526177176827956</v>
+        <v>1.477611940298506</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>4.586895470285285</v>
+        <v>4.506666666666667</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.3450277218814084</v>
+        <v>0.3365505804311767</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.220135921366413</v>
+        <v>1.206666666666667</v>
       </c>
     </row>
     <row r="26">
@@ -2573,76 +2573,76 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.04391376451077933</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="G26" t="n">
-        <v>1.333149439670334</v>
+        <v>1.253167495854062</v>
       </c>
       <c r="H26" t="n">
-        <v>0.007267007025573255</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.978348229548229</v>
+        <v>4.619999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>1.748860942808586</v>
+        <v>1.732636815920397</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>6.083967643467645</v>
+        <v>5.820000000000002</v>
       </c>
       <c r="M26" t="n">
-        <v>1.917097899982065</v>
+        <v>1.877446102819236</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>6.434103857253855</v>
+        <v>6.140000000000002</v>
       </c>
       <c r="P26" t="n">
-        <v>1.763773347547973</v>
+        <v>1.707661691542287</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.030303030303031e-05</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>5.766333333333339</v>
+        <v>5.613333333333333</v>
       </c>
       <c r="S26" t="n">
-        <v>1.464620415963896</v>
+        <v>1.374527363184078</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>4.463445274170268</v>
+        <v>4.220000000000002</v>
       </c>
       <c r="V26" t="n">
-        <v>0.9290097675561119</v>
+        <v>0.8801326699834148</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>3.002686425936477</v>
+        <v>2.799999999999999</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.2181419783829158</v>
+        <v>0.2056384742951895</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.8346736454903982</v>
+        <v>0.8333333333333337</v>
       </c>
     </row>
     <row r="27">
@@ -2656,76 +2656,76 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>12.38050082918741</v>
+        <v>11.95535655058043</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2366666666666665</v>
+        <v>0.3266666666666665</v>
       </c>
       <c r="F27" t="n">
-        <v>39.84800000000006</v>
+        <v>38.50666666666666</v>
       </c>
       <c r="G27" t="n">
-        <v>7.760414814814807</v>
+        <v>7.776616915422882</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1957497480784716</v>
+        <v>0.3</v>
       </c>
       <c r="I27" t="n">
-        <v>21.8604</v>
+        <v>22.19333333333334</v>
       </c>
       <c r="J27" t="n">
-        <v>3.012589425886432</v>
+        <v>3.100265339966826</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01685098235098235</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="L27" t="n">
-        <v>9.974111111111116</v>
+        <v>10.72666666666667</v>
       </c>
       <c r="M27" t="n">
-        <v>1.240144483929557</v>
+        <v>1.255953565505803</v>
       </c>
       <c r="N27" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>4.851703174603172</v>
+        <v>5.213333333333334</v>
       </c>
       <c r="P27" t="n">
-        <v>0.4867957356076751</v>
+        <v>0.523150912106135</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0003641607605634694</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>2.728999999999999</v>
+        <v>2.813333333333333</v>
       </c>
       <c r="S27" t="n">
-        <v>0.2037167701796028</v>
+        <v>0.2188059701492534</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1.257257936507938</v>
+        <v>1.426666666666667</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0772064161193798</v>
+        <v>0.07024875621890532</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.6523738298738293</v>
+        <v>0.58</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.01176621748329385</v>
+        <v>0.01505804311774456</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.196526626165812</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -2748,67 +2748,67 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.1045771144278607</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="J28" t="n">
-        <v>4.602343707091874</v>
+        <v>4.60925373134327</v>
       </c>
       <c r="K28" t="n">
-        <v>0.03105582857688122</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="L28" t="n">
-        <v>13.47401725146199</v>
+        <v>13.69333333333334</v>
       </c>
       <c r="M28" t="n">
-        <v>6.351594292606219</v>
+        <v>6.162255389718063</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1921301452604002</v>
+        <v>0.1733333333333334</v>
       </c>
       <c r="O28" t="n">
-        <v>17.47239999999999</v>
+        <v>17.06</v>
       </c>
       <c r="P28" t="n">
-        <v>4.577246098977915</v>
+        <v>4.656915422885563</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.05229873755632857</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="R28" t="n">
-        <v>12.11213383331494</v>
+        <v>11.87333333333333</v>
       </c>
       <c r="S28" t="n">
-        <v>2.77468016951034</v>
+        <v>2.725339966832498</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>7.855872688257584</v>
+        <v>7.700000000000001</v>
       </c>
       <c r="V28" t="n">
-        <v>1.238729060276831</v>
+        <v>1.189983416252072</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>3.854998689541017</v>
+        <v>3.679999999999999</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.2081674958540627</v>
+        <v>0.209121061359867</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.000825552431744</v>
+        <v>0.9400000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -2822,76 +2822,76 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.138159125009868</v>
+        <v>1.108424543946931</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>4.108746031746035</v>
+        <v>3.973333333333334</v>
       </c>
       <c r="G29" t="n">
-        <v>1.333915108201176</v>
+        <v>1.393698175787726</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01869711069383482</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.704485714285715</v>
+        <v>4.866666666666664</v>
       </c>
       <c r="J29" t="n">
-        <v>1.399291894867398</v>
+        <v>1.459568822553895</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>4.756628571428573</v>
+        <v>4.959999999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>1.350734515048251</v>
+        <v>1.360530679933664</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>4.377070522117339</v>
+        <v>4.406666666666666</v>
       </c>
       <c r="P29" t="n">
-        <v>1.212992892679459</v>
+        <v>1.230713101160861</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0001498676190644456</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>3.931266666666668</v>
+        <v>3.926666666666665</v>
       </c>
       <c r="S29" t="n">
-        <v>1.028694048277131</v>
+        <v>1.035290215588722</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>3.370959085359084</v>
+        <v>3.313333333333334</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6533221279013633</v>
+        <v>0.6338971807628513</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>2.260278081178081</v>
+        <v>2.286666666666666</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.1673077555943226</v>
+        <v>0.1642454394693199</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.7590702657689338</v>
+        <v>0.7933333333333337</v>
       </c>
     </row>
     <row r="30">
@@ -2905,76 +2905,76 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.0344278606965174</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="G30" t="n">
-        <v>2.670314206744046</v>
+        <v>2.300033167495846</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04000098054425284</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="I30" t="n">
-        <v>7.83321904761905</v>
+        <v>6.940000000000003</v>
       </c>
       <c r="J30" t="n">
-        <v>3.875019483078177</v>
+        <v>3.662222222222213</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1046166358695769</v>
+        <v>0.04</v>
       </c>
       <c r="L30" t="n">
-        <v>11.30499906759907</v>
+        <v>10.86666666666667</v>
       </c>
       <c r="M30" t="n">
-        <v>3.718546296415939</v>
+        <v>3.624212271973454</v>
       </c>
       <c r="N30" t="n">
-        <v>0.03014015582688352</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="O30" t="n">
-        <v>11.62871973810503</v>
+        <v>11.06</v>
       </c>
       <c r="P30" t="n">
-        <v>2.739135333735642</v>
+        <v>2.822354892205633</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.030303030303031e-05</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.952715319424296</v>
+        <v>8.266666666666662</v>
       </c>
       <c r="S30" t="n">
-        <v>1.80166323666716</v>
+        <v>1.944875621890545</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>5.676845030854937</v>
+        <v>6.026666666666666</v>
       </c>
       <c r="V30" t="n">
-        <v>0.9664026841217802</v>
+        <v>0.9774792703150904</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>3.125035490270837</v>
+        <v>3.013333333333331</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.1801956645344701</v>
+        <v>0.1923383084577111</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.7977545757476605</v>
+        <v>0.8200000000000004</v>
       </c>
     </row>
     <row r="31">
@@ -3006,58 +3006,58 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>10.38517500203401</v>
+        <v>8.508159203980089</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1787841232349159</v>
+        <v>0.1333333333333334</v>
       </c>
       <c r="L31" t="n">
-        <v>32.60296673879657</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="M31" t="n">
-        <v>8.341299508157215</v>
+        <v>8.486235489220554</v>
       </c>
       <c r="N31" t="n">
-        <v>0.07992410150236239</v>
+        <v>0.18</v>
       </c>
       <c r="O31" t="n">
-        <v>24.21982857142853</v>
+        <v>24.00666666666667</v>
       </c>
       <c r="P31" t="n">
-        <v>3.922067243867232</v>
+        <v>4.296185737976772</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.005112716055580366</v>
+        <v>0.02</v>
       </c>
       <c r="R31" t="n">
-        <v>12.14038414918415</v>
+        <v>12.56</v>
       </c>
       <c r="S31" t="n">
-        <v>1.541318592224064</v>
+        <v>1.805572139303477</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>5.536711904761903</v>
+        <v>6.133333333333334</v>
       </c>
       <c r="V31" t="n">
-        <v>0.50204975124378</v>
+        <v>0.6177114427860686</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>2.218447619047616</v>
+        <v>2.413333333333333</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.07745638474295177</v>
+        <v>0.09240464344941944</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.5054070041070041</v>
+        <v>0.5399999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3083,64 +3083,64 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02442783473836106</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.698462876095705</v>
+        <v>6.180597014925364</v>
       </c>
       <c r="K32" t="n">
-        <v>0.03866666666666668</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L32" t="n">
-        <v>19.12417777777778</v>
+        <v>20.14</v>
       </c>
       <c r="M32" t="n">
-        <v>11.615540842408</v>
+        <v>10.77641791044775</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2862594177064766</v>
+        <v>0.2466666666666668</v>
       </c>
       <c r="O32" t="n">
-        <v>33.22579629629627</v>
+        <v>30.63999999999999</v>
       </c>
       <c r="P32" t="n">
-        <v>4.828727197346586</v>
+        <v>4.797877280265325</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.02910232988141461</v>
+        <v>0.02</v>
       </c>
       <c r="R32" t="n">
-        <v>14.43754444444444</v>
+        <v>14.33999999999999</v>
       </c>
       <c r="S32" t="n">
-        <v>1.792899539340334</v>
+        <v>1.890646766169152</v>
       </c>
       <c r="T32" t="n">
-        <v>0.02018095238095239</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="U32" t="n">
-        <v>5.777588095238095</v>
+        <v>6.313333333333333</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5302857379767818</v>
+        <v>0.5784079601990041</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>2.151138335738333</v>
+        <v>2.353333333333334</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.08391557459153681</v>
+        <v>0.08733001658374781</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.5138703830397331</v>
+        <v>0.5399999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3163,67 +3163,67 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>3.897970149253725</v>
+        <v>3.792570480928676</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>11.652</v>
+        <v>11.57333333333334</v>
       </c>
       <c r="J33" t="n">
-        <v>10.64999741621463</v>
+        <v>10.29011608623548</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2882532750918712</v>
+        <v>0.2733333333333335</v>
       </c>
       <c r="L33" t="n">
-        <v>30.45935994482</v>
+        <v>27.73333333333333</v>
       </c>
       <c r="M33" t="n">
-        <v>5.947432606807236</v>
+        <v>6.024477611940292</v>
       </c>
       <c r="N33" t="n">
-        <v>0.1509013794957212</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O33" t="n">
-        <v>15.30748518518519</v>
+        <v>16.02666666666667</v>
       </c>
       <c r="P33" t="n">
-        <v>2.576518787017287</v>
+        <v>2.704975124378101</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.004495307107033915</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="R33" t="n">
-        <v>7.621670995670994</v>
+        <v>8.080000000000004</v>
       </c>
       <c r="S33" t="n">
-        <v>1.012510410908421</v>
+        <v>1.082222222222221</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3.984528571428569</v>
+        <v>4.046666666666667</v>
       </c>
       <c r="V33" t="n">
-        <v>0.3207412820457585</v>
+        <v>0.3600663349917073</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>1.466483078033077</v>
+        <v>1.653333333333334</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.04046950959488266</v>
+        <v>0.04955223880597008</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.3329042250129739</v>
+        <v>0.4333333333333335</v>
       </c>
     </row>
     <row r="34">
@@ -3237,76 +3237,76 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>4.122264234383633</v>
+        <v>3.99668325041459</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03533333333333335</v>
+        <v>0.05333333333333333</v>
       </c>
       <c r="F34" t="n">
-        <v>13.68587777777779</v>
+        <v>12.92</v>
       </c>
       <c r="G34" t="n">
-        <v>6.233411166390264</v>
+        <v>5.823184079601977</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1042336878955836</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="I34" t="n">
-        <v>17.6296</v>
+        <v>17.02000000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>4.860857539972458</v>
+        <v>4.670082918739622</v>
       </c>
       <c r="K34" t="n">
-        <v>0.05658502934973524</v>
+        <v>0.05333333333333333</v>
       </c>
       <c r="L34" t="n">
-        <v>13.61037142857143</v>
+        <v>13.53333333333333</v>
       </c>
       <c r="M34" t="n">
-        <v>3.102891429097885</v>
+        <v>3.086865671641781</v>
       </c>
       <c r="N34" t="n">
-        <v>0.002400000000000001</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>8.521868638768643</v>
+        <v>8.653333333333334</v>
       </c>
       <c r="P34" t="n">
-        <v>2.057009268951054</v>
+        <v>1.815157545605305</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.01126313708532769</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.816084939243762</v>
+        <v>5.4</v>
       </c>
       <c r="S34" t="n">
-        <v>1.009451082862876</v>
+        <v>0.9469651741293529</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>3.011555555555559</v>
+        <v>3.026666666666666</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4016002842928209</v>
+        <v>0.4106135986732996</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.480711111111114</v>
+        <v>1.513333333333333</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.07853115375503421</v>
+        <v>0.07323383084577104</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.4279971916971914</v>
+        <v>0.4266666666666669</v>
       </c>
     </row>
     <row r="35">
@@ -3320,76 +3320,76 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.09336650082918672</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>1.880024812445707</v>
+        <v>1.989618573797678</v>
       </c>
       <c r="H35" t="n">
-        <v>0.009592548151114383</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.522419658119658</v>
+        <v>6.486666666666665</v>
       </c>
       <c r="J35" t="n">
-        <v>2.628811036393117</v>
+        <v>2.823781094527356</v>
       </c>
       <c r="K35" t="n">
-        <v>0.001333333333333334</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="L35" t="n">
-        <v>8.188812698412701</v>
+        <v>8.420000000000005</v>
       </c>
       <c r="M35" t="n">
-        <v>2.692837708836205</v>
+        <v>2.835124378109445</v>
       </c>
       <c r="N35" t="n">
-        <v>0.01322727272727273</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="O35" t="n">
-        <v>7.961145154192212</v>
+        <v>8.260000000000002</v>
       </c>
       <c r="P35" t="n">
-        <v>2.482812895045879</v>
+        <v>2.422686567164171</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.002690790649920657</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>7.471328341507134</v>
+        <v>6.933333333333331</v>
       </c>
       <c r="S35" t="n">
-        <v>1.820612536105513</v>
+        <v>1.843515754560529</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>5.406204130089037</v>
+        <v>5.333333333333334</v>
       </c>
       <c r="V35" t="n">
-        <v>0.9580372313140388</v>
+        <v>1.028888888888889</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>3.184715913115964</v>
+        <v>3.246666666666667</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.2194753718551153</v>
+        <v>0.215456053067993</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.8401225965393493</v>
+        <v>0.8533333333333336</v>
       </c>
     </row>
     <row r="36">
@@ -3421,58 +3421,58 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.64905196241017</v>
+        <v>1.598474295190711</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>5.162399999999998</v>
+        <v>5.026666666666666</v>
       </c>
       <c r="M36" t="n">
-        <v>6.071795840422681</v>
+        <v>6.097910447761177</v>
       </c>
       <c r="N36" t="n">
-        <v>0.1971981363164717</v>
+        <v>0.1333333333333334</v>
       </c>
       <c r="O36" t="n">
-        <v>16.92277142857142</v>
+        <v>17.10666666666667</v>
       </c>
       <c r="P36" t="n">
-        <v>5.716934406774564</v>
+        <v>5.624742951907121</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.03491463596818758</v>
+        <v>0.1</v>
       </c>
       <c r="R36" t="n">
-        <v>16.25223258408259</v>
+        <v>16.02</v>
       </c>
       <c r="S36" t="n">
-        <v>3.399370470019757</v>
+        <v>3.54713101160861</v>
       </c>
       <c r="T36" t="n">
-        <v>0.01062446028916617</v>
+        <v>0.1</v>
       </c>
       <c r="U36" t="n">
-        <v>9.209068059097243</v>
+        <v>10.14666666666667</v>
       </c>
       <c r="V36" t="n">
-        <v>1.66055345196244</v>
+        <v>1.596716417910447</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>4.614421092266792</v>
+        <v>4.473333333333333</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.2720185264155401</v>
+        <v>0.2648424543946921</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.071891382788751</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="37">
@@ -3486,76 +3486,76 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6454122403853737</v>
+        <v>0.6618905472636809</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.221808994708994</v>
+        <v>2.306666666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>1.799542725047202</v>
+        <v>1.597180762852404</v>
       </c>
       <c r="H37" t="n">
-        <v>0.009781292739858971</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>5.805412987012987</v>
+        <v>5.293333333333335</v>
       </c>
       <c r="J37" t="n">
-        <v>2.034994853294848</v>
+        <v>1.854096185737973</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>6.105540781440782</v>
+        <v>5.826666666666666</v>
       </c>
       <c r="M37" t="n">
-        <v>1.990661423853461</v>
+        <v>1.842918739635154</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>5.844619762699176</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="P37" t="n">
-        <v>1.793798057332385</v>
+        <v>1.676650082918739</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0001498676190644456</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.109252380952379</v>
+        <v>4.88</v>
       </c>
       <c r="S37" t="n">
-        <v>1.459187612081026</v>
+        <v>1.356285240464344</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>4.32561165223665</v>
+        <v>4.073333333333333</v>
       </c>
       <c r="V37" t="n">
-        <v>0.8881738928177196</v>
+        <v>0.8253399668325034</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.72764399113816</v>
+        <v>2.606666666666667</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.214555984111847</v>
+        <v>0.2090878938640122</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.8342425965393493</v>
+        <v>0.8866666666666668</v>
       </c>
     </row>
     <row r="38">
@@ -3569,76 +3569,76 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>3.88533333333333</v>
+        <v>3.071542288557207</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02533333333333334</v>
+        <v>0.006666666666666668</v>
       </c>
       <c r="F38" t="n">
-        <v>12.01459999999999</v>
+        <v>9.386666666666667</v>
       </c>
       <c r="G38" t="n">
-        <v>10.60607200505408</v>
+        <v>9.984145936981745</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2526599565410003</v>
+        <v>0.3200000000000002</v>
       </c>
       <c r="I38" t="n">
-        <v>28.8220626984127</v>
+        <v>28.78666666666666</v>
       </c>
       <c r="J38" t="n">
-        <v>6.011727770681486</v>
+        <v>6.192769485903804</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2784769119769119</v>
+        <v>0.2533333333333335</v>
       </c>
       <c r="L38" t="n">
-        <v>15.83675311355312</v>
+        <v>16.67333333333334</v>
       </c>
       <c r="M38" t="n">
-        <v>2.544246829750306</v>
+        <v>2.870049751243771</v>
       </c>
       <c r="N38" t="n">
-        <v>0.03263333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="O38" t="n">
-        <v>8.674443782143781</v>
+        <v>8.726666666666667</v>
       </c>
       <c r="P38" t="n">
-        <v>1.020724141198767</v>
+        <v>1.231973466003315</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.345980816569052e-05</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.10038095238095</v>
+        <v>4.666666666666668</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4223083749123546</v>
+        <v>0.5222885572139296</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.19406378066378</v>
+        <v>2.333333333333334</v>
       </c>
       <c r="V38" t="n">
-        <v>0.1444218550106608</v>
+        <v>0.1806301824212267</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.8407541992407312</v>
+        <v>1.053333333333333</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.02081849698118352</v>
+        <v>0.02912106135986728</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.2954273580061328</v>
+        <v>0.2800000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3652,76 +3652,76 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2.843046987285776</v>
+        <v>2.783383084577102</v>
       </c>
       <c r="E39" t="n">
-        <v>0.004000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>8.127944444444454</v>
+        <v>8.213333333333335</v>
       </c>
       <c r="G39" t="n">
-        <v>4.172817689331111</v>
+        <v>4.012437810945262</v>
       </c>
       <c r="H39" t="n">
-        <v>0.05085965564108583</v>
+        <v>0.05333333333333333</v>
       </c>
       <c r="I39" t="n">
-        <v>11.31653333333333</v>
+        <v>11.36</v>
       </c>
       <c r="J39" t="n">
-        <v>4.172277298691713</v>
+        <v>3.899668325041443</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0268888888888889</v>
+        <v>0.04666666666666666</v>
       </c>
       <c r="L39" t="n">
-        <v>11.94160822510823</v>
+        <v>11.67333333333334</v>
       </c>
       <c r="M39" t="n">
-        <v>3.308817095139971</v>
+        <v>3.049718076285228</v>
       </c>
       <c r="N39" t="n">
-        <v>0.007600000000000001</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>8.722037037037047</v>
+        <v>8.439999999999996</v>
       </c>
       <c r="P39" t="n">
-        <v>1.962893151127475</v>
+        <v>2.118308457711432</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0004335351211530004</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.170226209085033</v>
+        <v>6.56</v>
       </c>
       <c r="S39" t="n">
-        <v>1.474020167657986</v>
+        <v>1.391542288557213</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>4.256071500721498</v>
+        <v>4.200000000000002</v>
       </c>
       <c r="V39" t="n">
-        <v>0.7241215685093654</v>
+        <v>0.6516417910447753</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>2.284372682002089</v>
+        <v>2.173333333333334</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.1259177446102818</v>
+        <v>0.1243449419568822</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.7428161847816795</v>
+        <v>0.6266666666666668</v>
       </c>
     </row>
     <row r="40">
@@ -3744,67 +3744,67 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.04205638474295186</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J40" t="n">
-        <v>1.355959942471386</v>
+        <v>1.270779436152569</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>5.415861904761905</v>
+        <v>4.940000000000001</v>
       </c>
       <c r="M40" t="n">
-        <v>1.890441996442083</v>
+        <v>1.780663349917081</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.796184587634586</v>
+        <v>5.673333333333334</v>
       </c>
       <c r="P40" t="n">
-        <v>1.910936713259098</v>
+        <v>1.807595356550579</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.00263792872603392</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.466638095238092</v>
+        <v>5.373333333333334</v>
       </c>
       <c r="S40" t="n">
-        <v>1.686797694308638</v>
+        <v>1.608059701492537</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>4.933162121212124</v>
+        <v>4.906666666666667</v>
       </c>
       <c r="V40" t="n">
-        <v>1.105336767100001</v>
+        <v>1.035721393034825</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>3.52553621933622</v>
+        <v>3.233333333333334</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.2947471850703182</v>
+        <v>0.2606301824212262</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>1.075047888743349</v>
+        <v>0.9866666666666667</v>
       </c>
     </row>
     <row r="41">
@@ -3836,58 +3836,58 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.05744610281923714</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="M41" t="n">
-        <v>4.331375345494747</v>
+        <v>4.683913764510772</v>
       </c>
       <c r="N41" t="n">
-        <v>0.1913333333333333</v>
+        <v>0.12</v>
       </c>
       <c r="O41" t="n">
-        <v>12.24811111111113</v>
+        <v>13.13999999999999</v>
       </c>
       <c r="P41" t="n">
-        <v>5.97255531864486</v>
+        <v>6.132172470978428</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.1773470899470898</v>
+        <v>0.1533333333333334</v>
       </c>
       <c r="R41" t="n">
-        <v>15.89159999999999</v>
+        <v>16.54</v>
       </c>
       <c r="S41" t="n">
-        <v>4.273426071603522</v>
+        <v>4.345140961857366</v>
       </c>
       <c r="T41" t="n">
-        <v>0.1478266987914045</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="U41" t="n">
-        <v>11.43685757559434</v>
+        <v>11.46</v>
       </c>
       <c r="V41" t="n">
-        <v>2.130200006530224</v>
+        <v>2.031111111111107</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>5.638860691813632</v>
+        <v>5.666666666666668</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.376844333886124</v>
+        <v>0.3494195688225529</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>1.293996914632209</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="42">
@@ -3901,76 +3901,76 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.08905472636815866</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="G42" t="n">
-        <v>6.774454505251514</v>
+        <v>6.986500829187391</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2678089902416099</v>
+        <v>0.3066666666666667</v>
       </c>
       <c r="I42" t="n">
-        <v>21.00011428571429</v>
+        <v>21.84666666666667</v>
       </c>
       <c r="J42" t="n">
-        <v>7.614786315517642</v>
+        <v>7.769917081260358</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2582499148879366</v>
+        <v>0.3066666666666668</v>
       </c>
       <c r="L42" t="n">
-        <v>21.98186726835257</v>
+        <v>22.36000000000001</v>
       </c>
       <c r="M42" t="n">
-        <v>4.477265687675132</v>
+        <v>4.526235489220554</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0938798659178724</v>
+        <v>0.12</v>
       </c>
       <c r="O42" t="n">
-        <v>13.48844564977507</v>
+        <v>12.88</v>
       </c>
       <c r="P42" t="n">
-        <v>2.245045809911472</v>
+        <v>2.168623548922044</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.007583057591069134</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.870246874762662</v>
+        <v>6.820000000000001</v>
       </c>
       <c r="S42" t="n">
-        <v>1.031216575850906</v>
+        <v>0.9948590381426198</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>3.755876190476188</v>
+        <v>3.746666666666667</v>
       </c>
       <c r="V42" t="n">
-        <v>0.362616358682776</v>
+        <v>0.3518076285240456</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>1.62787777777778</v>
+        <v>1.646666666666666</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.05364593698175775</v>
+        <v>0.05293532338308447</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.3572942149353915</v>
+        <v>0.3800000000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3984,76 +3984,76 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.0344278606965174</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="G43" t="n">
-        <v>2.667614372581525</v>
+        <v>2.276749585406294</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04000098054425284</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="I43" t="n">
-        <v>7.809219047619052</v>
+        <v>6.860000000000002</v>
       </c>
       <c r="J43" t="n">
-        <v>3.900378426456522</v>
+        <v>3.738374792703144</v>
       </c>
       <c r="K43" t="n">
-        <v>0.06961663586957703</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="L43" t="n">
-        <v>11.91371428571429</v>
+        <v>11.28</v>
       </c>
       <c r="M43" t="n">
-        <v>3.720926901327887</v>
+        <v>3.660165837479257</v>
       </c>
       <c r="N43" t="n">
-        <v>0.07941707890380663</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="O43" t="n">
-        <v>12.20602911761442</v>
+        <v>11.37333333333333</v>
       </c>
       <c r="P43" t="n">
-        <v>2.739135333735642</v>
+        <v>2.895887230514091</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.030303030303031e-05</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.913115319424297</v>
+        <v>8.619999999999997</v>
       </c>
       <c r="S43" t="n">
-        <v>1.801356547888829</v>
+        <v>2.00238805970149</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>5.668834929844836</v>
+        <v>6.16</v>
       </c>
       <c r="V43" t="n">
-        <v>0.9888024656353902</v>
+        <v>0.9869983416252065</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>3.134839131074478</v>
+        <v>3.026666666666666</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.1803341388296608</v>
+        <v>0.1911442786069648</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.7977545757476605</v>
+        <v>0.8333333333333337</v>
       </c>
     </row>
     <row r="44">
@@ -4094,49 +4094,49 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>6.452935741925291</v>
+        <v>7.08713101160862</v>
       </c>
       <c r="N44" t="n">
-        <v>0.123520634920635</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="O44" t="n">
-        <v>20.2233111111111</v>
+        <v>22.24000000000001</v>
       </c>
       <c r="P44" t="n">
-        <v>7.127385003553655</v>
+        <v>7.322089552238803</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.1396585877085876</v>
+        <v>0.1733333333333334</v>
       </c>
       <c r="R44" t="n">
-        <v>20.1098619047619</v>
+        <v>20.28</v>
       </c>
       <c r="S44" t="n">
-        <v>4.053415051076452</v>
+        <v>3.984610281923701</v>
       </c>
       <c r="T44" t="n">
-        <v>0.07534727951786768</v>
+        <v>0.14</v>
       </c>
       <c r="U44" t="n">
-        <v>11.90206122749799</v>
+        <v>11.71333333333333</v>
       </c>
       <c r="V44" t="n">
-        <v>1.6241882018479</v>
+        <v>1.523847429519071</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>4.626743448490507</v>
+        <v>4.486666666666665</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.212003198294242</v>
+        <v>0.2081923714759523</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.8672186202686203</v>
+        <v>0.8200000000000003</v>
       </c>
     </row>
     <row r="45">
@@ -4150,76 +4150,76 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>6.56207628524046</v>
+        <v>7.695621890547261</v>
       </c>
       <c r="E45" t="n">
-        <v>0.08533333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="F45" t="n">
-        <v>20.43644444444443</v>
+        <v>24.72666666666667</v>
       </c>
       <c r="G45" t="n">
-        <v>8.333626312880025</v>
+        <v>8.097412935323376</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2053190220542386</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>23.72733333333333</v>
+        <v>22.92666666666667</v>
       </c>
       <c r="J45" t="n">
-        <v>4.917689873016228</v>
+        <v>4.763349917081249</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1124382099382098</v>
+        <v>0.07333333333333332</v>
       </c>
       <c r="L45" t="n">
-        <v>13.14544761904762</v>
+        <v>13</v>
       </c>
       <c r="M45" t="n">
-        <v>2.695769653471632</v>
+        <v>2.462255389718066</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0105</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>7.921128956228957</v>
+        <v>7.393333333333334</v>
       </c>
       <c r="P45" t="n">
-        <v>1.212373371239041</v>
+        <v>1.201658374792702</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.003854806515059757</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>4.020166666666667</v>
+        <v>3.886666666666666</v>
       </c>
       <c r="S45" t="n">
-        <v>0.5666295901445151</v>
+        <v>0.5669983416252063</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>2.324324603174603</v>
+        <v>2.293333333333333</v>
       </c>
       <c r="V45" t="n">
-        <v>0.1906806799336648</v>
+        <v>0.1998009950248754</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>1.004400000000001</v>
+        <v>0.9866666666666667</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.02841601516228368</v>
+        <v>0.03008291873963505</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.235027652550408</v>
+        <v>0.2333333333333334</v>
       </c>
     </row>
     <row r="46">
@@ -4251,58 +4251,58 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.886643028245004</v>
+        <v>3.860762852404635</v>
       </c>
       <c r="K46" t="n">
-        <v>0.04666666666666669</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="L46" t="n">
-        <v>12.32348571428571</v>
+        <v>12.36666666666667</v>
       </c>
       <c r="M46" t="n">
-        <v>10.49514530785227</v>
+        <v>10.49552238805969</v>
       </c>
       <c r="N46" t="n">
-        <v>0.3448205128205128</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O46" t="n">
-        <v>30.80664179894179</v>
+        <v>29.45333333333334</v>
       </c>
       <c r="P46" t="n">
-        <v>5.81744191823686</v>
+        <v>5.865870646766164</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.1631777777777774</v>
+        <v>0.08000000000000002</v>
       </c>
       <c r="R46" t="n">
-        <v>15.45259372294372</v>
+        <v>15.29333333333332</v>
       </c>
       <c r="S46" t="n">
-        <v>2.357119050251378</v>
+        <v>2.468656716417901</v>
       </c>
       <c r="T46" t="n">
-        <v>0.103768962627786</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="U46" t="n">
-        <v>6.909930303030304</v>
+        <v>7.153333333333332</v>
       </c>
       <c r="V46" t="n">
-        <v>0.816214925373133</v>
+        <v>0.8325704809286888</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.794490620490627</v>
+        <v>2.906666666666666</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.09607746979388765</v>
+        <v>0.112106135986733</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.7399960856137325</v>
+        <v>0.6600000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -4325,67 +4325,67 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>7.731458264234384</v>
+        <v>7.259966832504139</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01831587301587302</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="I47" t="n">
-        <v>26.98266666666669</v>
+        <v>25.24000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>12.41673485984213</v>
+        <v>12.0573134328358</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3014308235795359</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="L47" t="n">
-        <v>34.45330369721782</v>
+        <v>34.76</v>
       </c>
       <c r="M47" t="n">
-        <v>4.041723935876163</v>
+        <v>4.236882255389711</v>
       </c>
       <c r="N47" t="n">
-        <v>0.01647694235588973</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>12.73611976911974</v>
+        <v>13.02666666666667</v>
       </c>
       <c r="P47" t="n">
-        <v>1.385483297796731</v>
+        <v>1.468424543946931</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0005188284773662348</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>6.307502197802197</v>
+        <v>6.253333333333333</v>
       </c>
       <c r="S47" t="n">
-        <v>0.5378416173102734</v>
+        <v>0.5570480928689873</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>2.827065151515153</v>
+        <v>2.846666666666666</v>
       </c>
       <c r="V47" t="n">
-        <v>0.1600613534889653</v>
+        <v>0.1663349917081259</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>1.107220202020201</v>
+        <v>1.173333333333333</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.02610271512378614</v>
+        <v>0.02630182421227191</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.2378015215869189</v>
+        <v>0.2133333333333335</v>
       </c>
     </row>
     <row r="48">
@@ -4399,76 +4399,76 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1.152195688225538</v>
+        <v>1.174991708126035</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>3.392333333333328</v>
+        <v>3.506666666666668</v>
       </c>
       <c r="G48" t="n">
-        <v>3.961960420121607</v>
+        <v>4.081658374792695</v>
       </c>
       <c r="H48" t="n">
-        <v>0.04251526625853855</v>
+        <v>0.04</v>
       </c>
       <c r="I48" t="n">
-        <v>11.06113333333334</v>
+        <v>11.40666666666667</v>
       </c>
       <c r="J48" t="n">
-        <v>4.216007654847444</v>
+        <v>4.485671641791029</v>
       </c>
       <c r="K48" t="n">
-        <v>0.03337958294428884</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="L48" t="n">
-        <v>12.05247489177489</v>
+        <v>12.32000000000001</v>
       </c>
       <c r="M48" t="n">
-        <v>3.588018663297263</v>
+        <v>3.753631840796005</v>
       </c>
       <c r="N48" t="n">
-        <v>0.004836438923395445</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>9.874150360750354</v>
+        <v>10.1</v>
       </c>
       <c r="P48" t="n">
-        <v>2.617239941896966</v>
+        <v>2.742155887230507</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.0001498676190644456</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>7.149233210374077</v>
+        <v>7.473333333333331</v>
       </c>
       <c r="S48" t="n">
-        <v>1.710342348592789</v>
+        <v>1.702752902155886</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>5.08954572036151</v>
+        <v>5.239999999999998</v>
       </c>
       <c r="V48" t="n">
-        <v>0.9108941971492313</v>
+        <v>0.8030845771144269</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>2.756053453897622</v>
+        <v>2.54</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.1620359867330014</v>
+        <v>0.1478275290215588</v>
       </c>
       <c r="Z48" t="n">
         <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.7872260908991757</v>
+        <v>0.7333333333333336</v>
       </c>
     </row>
     <row r="49">
@@ -4500,58 +4500,58 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.5943186290768376</v>
+        <v>0.5735323383084576</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>2.049244444444445</v>
+        <v>2.04</v>
       </c>
       <c r="M49" t="n">
-        <v>1.608408591960828</v>
+        <v>1.570082918739635</v>
       </c>
       <c r="N49" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>5.471104477875063</v>
+        <v>5.453333333333331</v>
       </c>
       <c r="P49" t="n">
-        <v>1.838224156992812</v>
+        <v>1.801492537313432</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.04941757328173179</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>5.935590476190478</v>
+        <v>5.953333333333332</v>
       </c>
       <c r="S49" t="n">
-        <v>1.69668715680855</v>
+        <v>1.671177446102818</v>
       </c>
       <c r="T49" t="n">
-        <v>0.02021111111111112</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>5.134449999999995</v>
+        <v>5.139999999999999</v>
       </c>
       <c r="V49" t="n">
-        <v>1.163521187712232</v>
+        <v>1.134228855721392</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>3.449550505050501</v>
+        <v>3.406666666666668</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.283735717875269</v>
+        <v>0.2784079601990035</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>1.094018953593954</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="50">
@@ -4565,76 +4565,76 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6618931690752577</v>
+        <v>0.7541956882255387</v>
       </c>
       <c r="E50" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>2.314364550264551</v>
+        <v>2.72</v>
       </c>
       <c r="G50" t="n">
-        <v>1.761561283050835</v>
+        <v>1.829784411276947</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0092098641684304</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>5.867070129870131</v>
+        <v>6.08</v>
       </c>
       <c r="J50" t="n">
-        <v>1.958811294896367</v>
+        <v>2.072006633499166</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>6.181001098901099</v>
+        <v>6.48</v>
       </c>
       <c r="M50" t="n">
-        <v>1.881920447416964</v>
+        <v>2.048291873963513</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>5.715452470731885</v>
+        <v>6.12</v>
       </c>
       <c r="P50" t="n">
-        <v>1.757511442786069</v>
+        <v>1.845903814262021</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0004335351211530004</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>5.104252380952379</v>
+        <v>5.2</v>
       </c>
       <c r="S50" t="n">
-        <v>1.453145379216827</v>
+        <v>1.444344941956881</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>4.364910353535351</v>
+        <v>4.379999999999999</v>
       </c>
       <c r="V50" t="n">
-        <v>0.88015012636858</v>
+        <v>0.8419237147595349</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>2.656575737169905</v>
+        <v>2.646666666666666</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.2150607643477071</v>
+        <v>0.2172470978441114</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.8495334390301917</v>
+        <v>0.9333333333333335</v>
       </c>
     </row>
     <row r="51">
@@ -4666,58 +4666,58 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>0.0488557213930348</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="M51" t="n">
-        <v>1.011304414435758</v>
+        <v>1.009353233830844</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>3.205555555555554</v>
+        <v>3.426666666666667</v>
       </c>
       <c r="P51" t="n">
-        <v>1.200507960199005</v>
+        <v>1.218673300165837</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>4.366219047619046</v>
+        <v>4.406666666666667</v>
       </c>
       <c r="S51" t="n">
-        <v>1.152384332306718</v>
+        <v>1.189419568822553</v>
       </c>
       <c r="T51" t="n">
-        <v>0.0008275132275132274</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>4.108699999999999</v>
+        <v>3.939999999999999</v>
       </c>
       <c r="V51" t="n">
-        <v>0.8352968903953968</v>
+        <v>0.8420232172470972</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>2.782165079365085</v>
+        <v>2.846666666666665</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.2292249488488285</v>
+        <v>0.2278938640132665</v>
       </c>
       <c r="Z51" t="n">
         <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>1.032872893772894</v>
+        <v>1.126666666666666</v>
       </c>
     </row>
     <row r="52">
@@ -4749,58 +4749,58 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>0.1283582089552233</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="M52" t="n">
-        <v>9.413268972597324</v>
+        <v>9.691674958540624</v>
       </c>
       <c r="N52" t="n">
-        <v>0.2567904761904762</v>
+        <v>0.4133333333333331</v>
       </c>
       <c r="O52" t="n">
-        <v>28.29263356273356</v>
+        <v>29.26666666666666</v>
       </c>
       <c r="P52" t="n">
-        <v>7.203281520966588</v>
+        <v>7.546467661691536</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.1997570004070002</v>
+        <v>0.2933333333333335</v>
       </c>
       <c r="R52" t="n">
-        <v>20.89292722832722</v>
+        <v>21.01333333333333</v>
       </c>
       <c r="S52" t="n">
-        <v>3.496966094638721</v>
+        <v>3.286998341625196</v>
       </c>
       <c r="T52" t="n">
-        <v>0.03724083269671504</v>
+        <v>0.1133333333333334</v>
       </c>
       <c r="U52" t="n">
-        <v>10.9093651903652</v>
+        <v>10.05333333333333</v>
       </c>
       <c r="V52" t="n">
-        <v>1.09923631840796</v>
+        <v>1.027728026533996</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>3.752151467051465</v>
+        <v>3.740000000000001</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.1664610281923714</v>
+        <v>0.1535986733001657</v>
       </c>
       <c r="Z52" t="n">
         <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.8013094072594074</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -4814,76 +4814,76 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>2.792749585406291</v>
+        <v>2.524145936981748</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>7.891277777777793</v>
+        <v>7.226666666666664</v>
       </c>
       <c r="G53" t="n">
-        <v>4.121931453841889</v>
+        <v>4.175787728026525</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0514310842125144</v>
+        <v>0.1200000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>11.5792</v>
+        <v>11.82</v>
       </c>
       <c r="J53" t="n">
-        <v>4.111319739924704</v>
+        <v>4.099203980099493</v>
       </c>
       <c r="K53" t="n">
-        <v>0.08606397306397298</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="L53" t="n">
-        <v>12.28661774891775</v>
+        <v>11.88666666666667</v>
       </c>
       <c r="M53" t="n">
-        <v>3.35181739522684</v>
+        <v>3.263913764510769</v>
       </c>
       <c r="N53" t="n">
-        <v>0.01066117216117216</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>9.228925925925944</v>
+        <v>8.966666666666665</v>
       </c>
       <c r="P53" t="n">
-        <v>2.142585885866475</v>
+        <v>2.306600331674951</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.0001142106392106392</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>6.183535732894557</v>
+        <v>6.473333333333332</v>
       </c>
       <c r="S53" t="n">
-        <v>1.541585157523474</v>
+        <v>1.508358208955222</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>4.39889292929293</v>
+        <v>4.426666666666668</v>
       </c>
       <c r="V53" t="n">
-        <v>0.7951838831985456</v>
+        <v>0.7222553897180757</v>
       </c>
       <c r="W53" t="n">
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>2.439957626687036</v>
+        <v>2.326666666666667</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.1373140961857378</v>
+        <v>0.1488888888888887</v>
       </c>
       <c r="Z53" t="n">
         <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.7411099576754525</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="54">
@@ -4897,76 +4897,76 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>0.05276948590381413</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>0.1933333333333333</v>
       </c>
       <c r="G54" t="n">
-        <v>1.055443759078584</v>
+        <v>1.067330016583747</v>
       </c>
       <c r="H54" t="n">
-        <v>0.007267007025573255</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>4.017933333333334</v>
+        <v>3.673333333333334</v>
       </c>
       <c r="J54" t="n">
-        <v>1.239689243106041</v>
+        <v>1.312669983416251</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>4.46238181818182</v>
+        <v>4.34</v>
       </c>
       <c r="M54" t="n">
-        <v>1.320511548868115</v>
+        <v>1.349850746268656</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>4.420325573828912</v>
+        <v>4.393333333333335</v>
       </c>
       <c r="P54" t="n">
-        <v>1.261102345415777</v>
+        <v>1.311741293532338</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.001101762974236634</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>4.21154700854701</v>
+        <v>4.206666666666667</v>
       </c>
       <c r="S54" t="n">
-        <v>1.077865913817156</v>
+        <v>1.090978441127694</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>3.43482337107337</v>
+        <v>3.373333333333335</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6548649613531522</v>
+        <v>0.6588059701492537</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>2.251553213453211</v>
+        <v>2.260000000000001</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.1627745758939788</v>
+        <v>0.1752238805970147</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.7717832603012831</v>
+        <v>0.7666666666666671</v>
       </c>
     </row>
     <row r="55">
@@ -4980,76 +4980,76 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.06096185737976773</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="G55" t="n">
-        <v>1.344678240112567</v>
+        <v>1.275655058043117</v>
       </c>
       <c r="H55" t="n">
-        <v>0.007267007025573255</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>4.873948229548228</v>
+        <v>4.546666666666665</v>
       </c>
       <c r="J55" t="n">
-        <v>1.722979903560382</v>
+        <v>1.703250414593697</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>6.068121733821735</v>
+        <v>5.886666666666667</v>
       </c>
       <c r="M55" t="n">
-        <v>1.885189376867074</v>
+        <v>1.756815920398008</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>5.816292778572192</v>
+        <v>5.613333333333335</v>
       </c>
       <c r="P55" t="n">
-        <v>1.740976877517176</v>
+        <v>1.650514096185737</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.001101762974236634</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>5.622904761904762</v>
+        <v>5.419999999999998</v>
       </c>
       <c r="S55" t="n">
-        <v>1.459045828583338</v>
+        <v>1.356616915422885</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>4.287954004328999</v>
+        <v>4.126666666666669</v>
       </c>
       <c r="V55" t="n">
-        <v>0.8986809583905888</v>
+        <v>0.8356882255389706</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>2.901049654864412</v>
+        <v>2.86</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.2172058258124349</v>
+        <v>0.2167164179104462</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.8361225965393493</v>
+        <v>0.8533333333333336</v>
       </c>
     </row>
     <row r="56">
@@ -5081,58 +5081,58 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>10.37768999848035</v>
+        <v>9.73014925373133</v>
       </c>
       <c r="K56" t="n">
-        <v>0.2940173970213766</v>
+        <v>0.2466666666666668</v>
       </c>
       <c r="L56" t="n">
-        <v>32.15466973801958</v>
+        <v>30.59999999999998</v>
       </c>
       <c r="M56" t="n">
-        <v>8.350276964384419</v>
+        <v>8.154660033167485</v>
       </c>
       <c r="N56" t="n">
-        <v>0.2129838843317863</v>
+        <v>0.2133333333333334</v>
       </c>
       <c r="O56" t="n">
-        <v>22.0096458874459</v>
+        <v>21.95333333333333</v>
       </c>
       <c r="P56" t="n">
-        <v>3.80371226981972</v>
+        <v>3.661393034825859</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.0151257084477534</v>
+        <v>0.04</v>
       </c>
       <c r="R56" t="n">
-        <v>11.15433280754334</v>
+        <v>11.07333333333334</v>
       </c>
       <c r="S56" t="n">
-        <v>1.470060954486821</v>
+        <v>1.514162520729684</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>5.366210173160173</v>
+        <v>5.359999999999999</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4863805970149245</v>
+        <v>0.5089883913764504</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>2.35278499278499</v>
+        <v>2.233333333333333</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.06125737976782734</v>
+        <v>0.06733001658374779</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.4928149406149406</v>
+        <v>0.4733333333333334</v>
       </c>
     </row>
     <row r="57">
@@ -5158,64 +5158,64 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0004210526315789473</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>5.677839327173649</v>
+        <v>5.761990049751234</v>
       </c>
       <c r="K57" t="n">
-        <v>0.02533333333333334</v>
+        <v>0.06</v>
       </c>
       <c r="L57" t="n">
-        <v>19.11617777777778</v>
+        <v>19.52</v>
       </c>
       <c r="M57" t="n">
-        <v>11.60091338709199</v>
+        <v>11.1887230514096</v>
       </c>
       <c r="N57" t="n">
-        <v>0.2139366088727981</v>
+        <v>0.1933333333333334</v>
       </c>
       <c r="O57" t="n">
-        <v>33.22579629629627</v>
+        <v>32.05333333333332</v>
       </c>
       <c r="P57" t="n">
-        <v>4.828727197346586</v>
+        <v>4.77993366500828</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.001949970708283198</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="R57" t="n">
-        <v>14.42954444444444</v>
+        <v>14.55333333333333</v>
       </c>
       <c r="S57" t="n">
-        <v>1.794312474663717</v>
+        <v>1.789950248756217</v>
       </c>
       <c r="T57" t="n">
-        <v>0.001733333333333333</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>5.728838095238093</v>
+        <v>6.046666666666668</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5314499170812593</v>
+        <v>0.5305140961857373</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>2.135116113516112</v>
+        <v>2.293333333333334</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.08087577359651195</v>
+        <v>0.07280265339966822</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.5138703830397331</v>
+        <v>0.4933333333333333</v>
       </c>
     </row>
     <row r="58">
@@ -5229,76 +5229,76 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6413905709547485</v>
+        <v>0.6815920398009941</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>2.197364550264549</v>
+        <v>2.226666666666666</v>
       </c>
       <c r="G58" t="n">
-        <v>1.794560746053283</v>
+        <v>1.770049751243779</v>
       </c>
       <c r="H58" t="n">
-        <v>0.009781292739858971</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="I58" t="n">
-        <v>5.754612987012987</v>
+        <v>5.653333333333332</v>
       </c>
       <c r="J58" t="n">
-        <v>2.066372188839347</v>
+        <v>2.077943615257043</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>6.057074114774115</v>
+        <v>6.213333333333334</v>
       </c>
       <c r="M58" t="n">
-        <v>2.001033120923663</v>
+        <v>2.010381426202313</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="O58" t="n">
-        <v>5.810991720371132</v>
+        <v>6.193333333333334</v>
       </c>
       <c r="P58" t="n">
-        <v>1.766007178393745</v>
+        <v>1.728922056384742</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.0001142106392106392</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>5.067919047619045</v>
+        <v>4.906666666666665</v>
       </c>
       <c r="S58" t="n">
-        <v>1.470174010775385</v>
+        <v>1.399369817578773</v>
       </c>
       <c r="T58" t="n">
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>4.328696356421355</v>
+        <v>4.146666666666667</v>
       </c>
       <c r="V58" t="n">
-        <v>0.8890505808063479</v>
+        <v>0.8419568822553887</v>
       </c>
       <c r="W58" t="n">
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>2.737461166555336</v>
+        <v>2.56</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.2145206844198309</v>
+        <v>0.1950580431177439</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.8306603121570649</v>
+        <v>0.8200000000000003</v>
       </c>
     </row>
     <row r="59">
@@ -5321,67 +5321,67 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.2684577114427847</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J59" t="n">
-        <v>7.08919113858317</v>
+        <v>7.114494195688214</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1482996375747658</v>
+        <v>0.08000000000000002</v>
       </c>
       <c r="L59" t="n">
-        <v>21.11825331825037</v>
+        <v>21.34666666666667</v>
       </c>
       <c r="M59" t="n">
-        <v>8.014767982763495</v>
+        <v>7.71817578772802</v>
       </c>
       <c r="N59" t="n">
-        <v>0.1536543252570107</v>
+        <v>0.1933333333333334</v>
       </c>
       <c r="O59" t="n">
-        <v>21.35844641654643</v>
+        <v>20.76666666666666</v>
       </c>
       <c r="P59" t="n">
-        <v>4.583192855096314</v>
+        <v>4.441724709784402</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.01250023484419479</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="R59" t="n">
-        <v>12.70553883941995</v>
+        <v>12.41333333333333</v>
       </c>
       <c r="S59" t="n">
-        <v>2.203400920454141</v>
+        <v>2.098474295190702</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>7.183836593244028</v>
+        <v>6.813333333333336</v>
       </c>
       <c r="V59" t="n">
-        <v>0.7875667022032674</v>
+        <v>0.7587728026533985</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>2.695984981684983</v>
+        <v>2.653333333333333</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.1164262023217247</v>
+        <v>0.1141293532338307</v>
       </c>
       <c r="Z59" t="n">
         <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.5735885225885228</v>
+        <v>0.5933333333333334</v>
       </c>
     </row>
     <row r="60">
@@ -5395,76 +5395,76 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5864403537866215</v>
+        <v>0.6127363184079593</v>
       </c>
       <c r="E60" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>2.170719047619049</v>
+        <v>2.22</v>
       </c>
       <c r="G60" t="n">
-        <v>1.258508861656124</v>
+        <v>1.49462686567164</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0092098641684304</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>4.057285714285714</v>
+        <v>4.94</v>
       </c>
       <c r="J60" t="n">
-        <v>1.333598038751155</v>
+        <v>1.696451077943611</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>4.522977056277057</v>
+        <v>5.399999999999998</v>
       </c>
       <c r="M60" t="n">
-        <v>1.250386670837915</v>
+        <v>1.649618573797676</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>4.381553571870465</v>
+        <v>5.166666666666668</v>
       </c>
       <c r="P60" t="n">
-        <v>1.180708599857853</v>
+        <v>1.498905472636813</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.0004335351211530004</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>3.9643</v>
+        <v>4.553333333333333</v>
       </c>
       <c r="S60" t="n">
-        <v>1.027347384769275</v>
+        <v>1.222023217247097</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>3.500086435786435</v>
+        <v>3.813333333333333</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6073797029410279</v>
+        <v>0.7341293532338307</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>2.086741029341033</v>
+        <v>2.306666666666666</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.1611422411750769</v>
+        <v>0.1874295190713094</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.7809407694587921</v>
+        <v>0.8200000000000004</v>
       </c>
     </row>
     <row r="61">
@@ -5478,76 +5478,76 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>0.1374129353233826</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>0.4466666666666667</v>
       </c>
       <c r="G61" t="n">
-        <v>9.537992779488796</v>
+        <v>9.572935323383083</v>
       </c>
       <c r="H61" t="n">
-        <v>0.3055922532036952</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="I61" t="n">
-        <v>29.92320738705739</v>
+        <v>30.30666666666666</v>
       </c>
       <c r="J61" t="n">
-        <v>7.824708227088443</v>
+        <v>8.035621890547251</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2817470949585084</v>
+        <v>0.44</v>
       </c>
       <c r="L61" t="n">
-        <v>22.8301985543868</v>
+        <v>23.54</v>
       </c>
       <c r="M61" t="n">
-        <v>3.632035960409579</v>
+        <v>3.579635157545594</v>
       </c>
       <c r="N61" t="n">
-        <v>0.03839656251676713</v>
+        <v>0.02</v>
       </c>
       <c r="O61" t="n">
-        <v>10.70745250261722</v>
+        <v>10.73333333333333</v>
       </c>
       <c r="P61" t="n">
-        <v>1.556417759686415</v>
+        <v>1.51976782752902</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.001316056115735658</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>5.69001904761905</v>
+        <v>5.713333333333333</v>
       </c>
       <c r="S61" t="n">
-        <v>0.6052015940020907</v>
+        <v>0.5954228855721381</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>2.624324649859945</v>
+        <v>2.653333333333333</v>
       </c>
       <c r="V61" t="n">
-        <v>0.1847517677181855</v>
+        <v>0.185870646766169</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>0.9785860488725816</v>
+        <v>1.066666666666666</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.03262475716654813</v>
+        <v>0.03024875621890537</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.3116436903700864</v>
+        <v>0.2866666666666668</v>
       </c>
     </row>
     <row r="62">
@@ -5570,67 +5570,67 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>2.383635157545587</v>
+        <v>2.648689883913751</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>7.500000000000004</v>
+        <v>8.160000000000005</v>
       </c>
       <c r="J62" t="n">
-        <v>7.844228681517481</v>
+        <v>8.553897180762844</v>
       </c>
       <c r="K62" t="n">
-        <v>0.1967254541634759</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="L62" t="n">
-        <v>22.84165240804947</v>
+        <v>23.90666666666667</v>
       </c>
       <c r="M62" t="n">
-        <v>6.019878764905633</v>
+        <v>6.059933665008284</v>
       </c>
       <c r="N62" t="n">
-        <v>0.164956111468255</v>
+        <v>0.1333333333333334</v>
       </c>
       <c r="O62" t="n">
-        <v>16.06353597883598</v>
+        <v>16.62000000000001</v>
       </c>
       <c r="P62" t="n">
-        <v>3.551120015639324</v>
+        <v>3.171907131011598</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.01291471857646537</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="R62" t="n">
-        <v>9.384127647515882</v>
+        <v>9.086666666666671</v>
       </c>
       <c r="S62" t="n">
-        <v>1.459333278054174</v>
+        <v>1.41356550580431</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>4.694800000000003</v>
+        <v>4.633333333333331</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5412736318407958</v>
+        <v>0.5088888888888881</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>2.279371561771561</v>
+        <v>2.153333333333333</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.07681923714759528</v>
+        <v>0.07393034825870641</v>
       </c>
       <c r="Z62" t="n">
         <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.3930280830280831</v>
+        <v>0.4933333333333333</v>
       </c>
     </row>
     <row r="63">
@@ -5644,76 +5644,76 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>9.774480928689881</v>
+        <v>9.018507462686557</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2106666666666663</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="F63" t="n">
-        <v>31.57422222222226</v>
+        <v>29.48</v>
       </c>
       <c r="G63" t="n">
-        <v>7.995187396351571</v>
+        <v>7.954958540630175</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1902239339526575</v>
+        <v>0.3066666666666668</v>
       </c>
       <c r="I63" t="n">
-        <v>22.99173333333333</v>
+        <v>23.08666666666667</v>
       </c>
       <c r="J63" t="n">
-        <v>4.057390181000113</v>
+        <v>3.876650082918729</v>
       </c>
       <c r="K63" t="n">
-        <v>0.02935889295889297</v>
+        <v>0.02</v>
       </c>
       <c r="L63" t="n">
-        <v>12.37557142857143</v>
+        <v>12.08</v>
       </c>
       <c r="M63" t="n">
-        <v>1.824790386506803</v>
+        <v>1.755489220563843</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>6.142253968253971</v>
+        <v>6.173333333333333</v>
       </c>
       <c r="P63" t="n">
-        <v>0.8149025823264617</v>
+        <v>0.7827197346600318</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.0003641607605634694</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>3.433904761904759</v>
+        <v>3.426666666666666</v>
       </c>
       <c r="S63" t="n">
-        <v>0.3547870936323665</v>
+        <v>0.3208291873963507</v>
       </c>
       <c r="T63" t="n">
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>1.764333333333333</v>
+        <v>1.68</v>
       </c>
       <c r="V63" t="n">
-        <v>0.1103460475400772</v>
+        <v>0.1068325041459368</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>0.7919906796906789</v>
+        <v>0.6666666666666669</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.0242072257758824</v>
+        <v>0.02318407960198993</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.2249627595327107</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -5727,76 +5727,76 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5830440022111656</v>
+        <v>0.6222222222222212</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>2.142585714285715</v>
+        <v>2.246666666666666</v>
       </c>
       <c r="G64" t="n">
-        <v>1.298458170666627</v>
+        <v>1.441359867330015</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0092098641684304</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>4.071285714285715</v>
+        <v>4.826666666666667</v>
       </c>
       <c r="J64" t="n">
-        <v>1.392057684964532</v>
+        <v>1.623781094527361</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>4.532310389610391</v>
+        <v>5.226666666666666</v>
       </c>
       <c r="M64" t="n">
-        <v>1.321603767888649</v>
+        <v>1.579800995024874</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>4.373820238537133</v>
+        <v>4.92</v>
       </c>
       <c r="P64" t="n">
-        <v>1.25089149490642</v>
+        <v>1.452669983416251</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.0004335351211530004</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>3.922966666666667</v>
+        <v>4.4</v>
       </c>
       <c r="S64" t="n">
-        <v>1.052678438495353</v>
+        <v>1.188888888888888</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>3.391242418692416</v>
+        <v>3.673333333333334</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6170282933224545</v>
+        <v>0.7246102819237143</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>2.256617763717764</v>
+        <v>2.326666666666666</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.1669337281844743</v>
+        <v>0.1874626865671636</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.7791165936346163</v>
+        <v>0.8400000000000003</v>
       </c>
     </row>
     <row r="65">
@@ -5822,64 +5822,64 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0004210526315789473</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>0.3598673300165826</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="M65" t="n">
-        <v>12.76765191526733</v>
+        <v>12.08573797678275</v>
       </c>
       <c r="N65" t="n">
-        <v>0.252806349206349</v>
+        <v>0.2866666666666667</v>
       </c>
       <c r="O65" t="n">
-        <v>37.20000846560845</v>
+        <v>36.43333333333332</v>
       </c>
       <c r="P65" t="n">
-        <v>6.956218123667372</v>
+        <v>7.05734660033167</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.2032102471602469</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="R65" t="n">
-        <v>20.5499304029304</v>
+        <v>20.03333333333332</v>
       </c>
       <c r="S65" t="n">
-        <v>2.576034728474025</v>
+        <v>2.510945273631832</v>
       </c>
       <c r="T65" t="n">
-        <v>0.01536487564722858</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="U65" t="n">
-        <v>8.048109523809515</v>
+        <v>7.906666666666669</v>
       </c>
       <c r="V65" t="n">
-        <v>0.714381426202321</v>
+        <v>0.7011608623548911</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>2.926192063492064</v>
+        <v>2.92</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.09298839137645101</v>
+        <v>0.09107794361525699</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.566968507137857</v>
+        <v>0.5133333333333335</v>
       </c>
     </row>
     <row r="66">
@@ -5893,76 +5893,76 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1.760081370923162</v>
+        <v>1.790978441127695</v>
       </c>
       <c r="E66" t="n">
-        <v>0.002666666666666667</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="F66" t="n">
-        <v>5.201666666666661</v>
+        <v>5.266666666666667</v>
       </c>
       <c r="G66" t="n">
-        <v>5.980949917081246</v>
+        <v>5.921525704809284</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09777241539615324</v>
+        <v>0.03333333333333334</v>
       </c>
       <c r="I66" t="n">
-        <v>16.99480000000001</v>
+        <v>16.28000000000001</v>
       </c>
       <c r="J66" t="n">
-        <v>5.952019750901278</v>
+        <v>5.629883913764503</v>
       </c>
       <c r="K66" t="n">
-        <v>0.01360740740740741</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="L66" t="n">
-        <v>16.13018068598068</v>
+        <v>14.91333333333333</v>
       </c>
       <c r="M66" t="n">
-        <v>3.881585468557603</v>
+        <v>3.966467661691537</v>
       </c>
       <c r="N66" t="n">
-        <v>0.009217391304347827</v>
+        <v>0.006666666666666668</v>
       </c>
       <c r="O66" t="n">
-        <v>11.09395616605616</v>
+        <v>11.09333333333334</v>
       </c>
       <c r="P66" t="n">
-        <v>2.619996069754411</v>
+        <v>2.429485903814255</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.01126313708532769</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>7.148905288296155</v>
+        <v>7.040000000000002</v>
       </c>
       <c r="S66" t="n">
-        <v>1.331799846135912</v>
+        <v>1.28898839137645</v>
       </c>
       <c r="T66" t="n">
         <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>4.29784627039627</v>
+        <v>4.113333333333334</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5120426281291941</v>
+        <v>0.5485240464344937</v>
       </c>
       <c r="W66" t="n">
         <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>1.959528042328042</v>
+        <v>2</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.09046716417910439</v>
+        <v>0.1035157545605304</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.4922559218559215</v>
+        <v>0.5000000000000001</v>
       </c>
     </row>
     <row r="67">
@@ -5976,76 +5976,76 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.1609618573797677</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>0.4799999999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>4.068114712153514</v>
+        <v>4.191376451077935</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1126317280306278</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="I67" t="n">
-        <v>12.17866666666667</v>
+        <v>12.38666666666666</v>
       </c>
       <c r="J67" t="n">
-        <v>5.773459956119411</v>
+        <v>5.751376451077935</v>
       </c>
       <c r="K67" t="n">
-        <v>0.1814216973199943</v>
+        <v>0.18</v>
       </c>
       <c r="L67" t="n">
-        <v>16.76718390702864</v>
+        <v>17.22</v>
       </c>
       <c r="M67" t="n">
-        <v>4.467933484094669</v>
+        <v>4.41200663349916</v>
       </c>
       <c r="N67" t="n">
-        <v>0.1108346198595828</v>
+        <v>0.1</v>
       </c>
       <c r="O67" t="n">
-        <v>13.40661072914015</v>
+        <v>12.74000000000001</v>
       </c>
       <c r="P67" t="n">
-        <v>2.739135333735642</v>
+        <v>2.814693200663341</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.01411849973469788</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>7.91410168306066</v>
+        <v>8.1</v>
       </c>
       <c r="S67" t="n">
-        <v>1.542084201189555</v>
+        <v>1.505140961857379</v>
       </c>
       <c r="T67" t="n">
         <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>4.892623791567908</v>
+        <v>4.746666666666669</v>
       </c>
       <c r="V67" t="n">
-        <v>0.6305806834176445</v>
+        <v>0.6299502487562183</v>
       </c>
       <c r="W67" t="n">
         <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>2.115787061087062</v>
+        <v>2.106666666666667</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.1141029613835583</v>
+        <v>0.1111774461028191</v>
       </c>
       <c r="Z67" t="n">
         <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.5927587301587305</v>
+        <v>0.5933333333333334</v>
       </c>
     </row>
     <row r="68">
@@ -6059,76 +6059,76 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.02175787728026533</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5986220610971852</v>
+        <v>0.6438805970149253</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>2.152042857142857</v>
+        <v>2.306666666666666</v>
       </c>
       <c r="J68" t="n">
-        <v>1.71405175067402</v>
+        <v>1.690514096185736</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>5.378967765567764</v>
+        <v>5.266666666666666</v>
       </c>
       <c r="M68" t="n">
-        <v>1.908495716243563</v>
+        <v>1.968126036484244</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>5.848836501515915</v>
+        <v>6.04</v>
       </c>
       <c r="P68" t="n">
-        <v>1.848575171760245</v>
+        <v>1.84653399668325</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.004460351734590821</v>
+        <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>6.0153</v>
+        <v>5.919999999999999</v>
       </c>
       <c r="S68" t="n">
-        <v>1.574877596146252</v>
+        <v>1.533631840796019</v>
       </c>
       <c r="T68" t="n">
         <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>4.637260317460314</v>
+        <v>4.506666666666669</v>
       </c>
       <c r="V68" t="n">
-        <v>1.036515057468788</v>
+        <v>0.9649087893864002</v>
       </c>
       <c r="W68" t="n">
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>2.891833092833094</v>
+        <v>2.753333333333333</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.2494220482668235</v>
+        <v>0.2424543946931992</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.9868381135493759</v>
+        <v>0.9666666666666668</v>
       </c>
     </row>
     <row r="69">
@@ -6151,67 +6151,67 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>7.525134328358203</v>
+        <v>7.041459369817565</v>
       </c>
       <c r="H69" t="n">
-        <v>0.05213217893217895</v>
+        <v>0.07333333333333332</v>
       </c>
       <c r="I69" t="n">
-        <v>23.636</v>
+        <v>22.36666666666666</v>
       </c>
       <c r="J69" t="n">
-        <v>12.34980745095104</v>
+        <v>11.99509121061358</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2989053822702751</v>
+        <v>0.3466666666666668</v>
       </c>
       <c r="L69" t="n">
-        <v>32.98598513799925</v>
+        <v>32.33333333333334</v>
       </c>
       <c r="M69" t="n">
-        <v>4.107942841348794</v>
+        <v>4.305538971807615</v>
       </c>
       <c r="N69" t="n">
-        <v>0.0594375484164958</v>
+        <v>0.04</v>
       </c>
       <c r="O69" t="n">
-        <v>13.36729119769122</v>
+        <v>13.67333333333334</v>
       </c>
       <c r="P69" t="n">
-        <v>1.397408670931058</v>
+        <v>1.475489220563847</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.004495307107033915</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>6.355140293040295</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="S69" t="n">
-        <v>0.5579260522782908</v>
+        <v>0.5724046434494183</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>2.902318398268399</v>
+        <v>3.073333333333334</v>
       </c>
       <c r="V69" t="n">
-        <v>0.1628147531572903</v>
+        <v>0.166434494195688</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>1.040944477744477</v>
+        <v>1.06</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.02701985956033356</v>
+        <v>0.0275290215588722</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.2777319324179181</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="70">
@@ -6234,67 +6234,67 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.0409618573797678</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.1533333333333333</v>
       </c>
       <c r="J70" t="n">
-        <v>1.362161821962818</v>
+        <v>1.290480928689882</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>5.231195238095236</v>
+        <v>4.599999999999999</v>
       </c>
       <c r="M70" t="n">
-        <v>1.897595775774966</v>
+        <v>1.757744610281923</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>6.073737057387063</v>
+        <v>5.873333333333333</v>
       </c>
       <c r="P70" t="n">
-        <v>1.902762252230907</v>
+        <v>1.84547263681592</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.002260083951760574</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>5.975990476190474</v>
+        <v>5.813333333333333</v>
       </c>
       <c r="S70" t="n">
-        <v>1.68286644578933</v>
+        <v>1.603051409618574</v>
       </c>
       <c r="T70" t="n">
         <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>5.214812121212116</v>
+        <v>5.033333333333335</v>
       </c>
       <c r="V70" t="n">
-        <v>1.098089475546564</v>
+        <v>1.04441127694859</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>3.573349446849447</v>
+        <v>3.399999999999999</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.2758241810428368</v>
+        <v>0.2599004975124367</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>1.078695507790968</v>
+        <v>0.9666666666666668</v>
       </c>
     </row>
     <row r="71">
@@ -6326,58 +6326,58 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>0.1041459369817577</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="M71" t="n">
-        <v>2.689598009950231</v>
+        <v>2.866169154228841</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>8.238222222222204</v>
+        <v>8.786666666666667</v>
       </c>
       <c r="P71" t="n">
-        <v>4.057279933665002</v>
+        <v>4.121956882255381</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.0564881673881674</v>
+        <v>0.04666666666666666</v>
       </c>
       <c r="R71" t="n">
-        <v>12.1624</v>
+        <v>12.58</v>
       </c>
       <c r="S71" t="n">
-        <v>3.687205753972012</v>
+        <v>3.53731343283581</v>
       </c>
       <c r="T71" t="n">
-        <v>0.05106943807826159</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="U71" t="n">
-        <v>10.3547249949397</v>
+        <v>10.23333333333333</v>
       </c>
       <c r="V71" t="n">
-        <v>1.930599428970696</v>
+        <v>1.947097844112767</v>
       </c>
       <c r="W71" t="n">
         <v>0</v>
       </c>
       <c r="X71" t="n">
-        <v>5.744484989737932</v>
+        <v>5.753333333333334</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.4138555081734174</v>
+        <v>0.42262023217247</v>
       </c>
       <c r="Z71" t="n">
         <v>0</v>
       </c>
       <c r="AA71" t="n">
-        <v>1.353842316156295</v>
+        <v>1.413333333333333</v>
       </c>
     </row>
     <row r="72">
@@ -6400,67 +6400,67 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.102189054726368</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="J72" t="n">
-        <v>2.730586511885014</v>
+        <v>2.836086235489216</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0237899877899878</v>
+        <v>0.02</v>
       </c>
       <c r="L72" t="n">
-        <v>8.591999999999992</v>
+        <v>8.786666666666667</v>
       </c>
       <c r="M72" t="n">
-        <v>4.104416334687964</v>
+        <v>4.181990049751234</v>
       </c>
       <c r="N72" t="n">
-        <v>0.08835499677627341</v>
+        <v>0.05333333333333333</v>
       </c>
       <c r="O72" t="n">
-        <v>11.67737063622651</v>
+        <v>11.99333333333334</v>
       </c>
       <c r="P72" t="n">
-        <v>4.02083672316204</v>
+        <v>3.736152570480916</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.01251278029442734</v>
+        <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>11.41386979278032</v>
+        <v>10.73333333333333</v>
       </c>
       <c r="S72" t="n">
-        <v>2.807183386249377</v>
+        <v>2.703250414593692</v>
       </c>
       <c r="T72" t="n">
         <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>7.94708752921373</v>
+        <v>7.859999999999999</v>
       </c>
       <c r="V72" t="n">
-        <v>1.407035079748228</v>
+        <v>1.394195688225538</v>
       </c>
       <c r="W72" t="n">
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>4.337328232220557</v>
+        <v>4.246666666666668</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.3028628466453679</v>
+        <v>0.2901492537313428</v>
       </c>
       <c r="Z72" t="n">
         <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>1.12562018181474</v>
+        <v>1.066666666666667</v>
       </c>
     </row>
   </sheetData>
